--- a/heat exp.xlsx
+++ b/heat exp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairecampion/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairecampion/Documents/GitHub/individualproject_datawrangle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{212B050E-43C7-C740-B00D-FEE85DA13142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C50209BF-A4B1-B148-BED0-11B658C66FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{01229912-BC45-1E45-8AD3-F070693C9309}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="21">
   <si>
     <t>cellometer</t>
   </si>
@@ -76,16 +76,10 @@
     <t>time</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>impatiens</t>
   </si>
   <si>
     <t xml:space="preserve">control </t>
-  </si>
-  <si>
-    <t>na</t>
   </si>
   <si>
     <t>hs</t>
@@ -103,7 +97,7 @@
     <t>heat</t>
   </si>
   <si>
-    <t>pipetted part of sample 29 on top of 28, both potentially ruined</t>
+    <t>male</t>
   </si>
 </sst>
 </file>
@@ -456,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAC991A-6976-CE49-B3C3-4C0C913EE545}">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -519,10 +513,10 @@
         <v>0.16109999999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
         <v>127</v>
@@ -540,13 +534,13 @@
         <v>44511</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -560,10 +554,10 @@
         <v>0.16109999999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
         <v>142</v>
@@ -581,13 +575,13 @@
         <v>44511</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -601,10 +595,10 @@
         <v>0.16109999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
         <v>141</v>
@@ -623,13 +617,13 @@
         <v>44511</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -643,7 +637,7 @@
         <v>0.16650000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>29</v>
@@ -665,13 +659,13 @@
         <v>44511</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -685,7 +679,7 @@
         <v>0.16650000000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>29</v>
@@ -707,13 +701,13 @@
         <v>44511</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -727,7 +721,7 @@
         <v>0.16650000000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>29</v>
@@ -749,13 +743,13 @@
         <v>44511</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -769,7 +763,7 @@
         <v>0.10249999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>29</v>
@@ -791,13 +785,13 @@
         <v>44511</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -811,7 +805,7 @@
         <v>0.10249999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>29</v>
@@ -833,13 +827,13 @@
         <v>44511</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -853,7 +847,7 @@
         <v>0.10249999999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>29</v>
@@ -875,13 +869,13 @@
         <v>44511</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -895,10 +889,10 @@
         <v>0.13780000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>272</v>
@@ -917,13 +911,13 @@
         <v>44511</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -937,10 +931,10 @@
         <v>0.13780000000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>283</v>
@@ -959,13 +953,13 @@
         <v>44511</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -979,10 +973,10 @@
         <v>0.13780000000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
         <v>271</v>
@@ -1001,13 +995,13 @@
         <v>44511</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1021,7 +1015,7 @@
         <v>0.1968</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <v>29</v>
@@ -1043,13 +1037,13 @@
         <v>44511</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1063,7 +1057,7 @@
         <v>0.1968</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15">
         <v>29</v>
@@ -1085,13 +1079,13 @@
         <v>44511</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1105,7 +1099,7 @@
         <v>0.1968</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16">
         <v>29</v>
@@ -1127,13 +1121,13 @@
         <v>44511</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -1147,7 +1141,7 @@
         <v>0.10489999999999999</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>29</v>
@@ -1169,13 +1163,13 @@
         <v>44511</v>
       </c>
       <c r="L17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
@@ -1189,7 +1183,7 @@
         <v>0.10489999999999999</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <v>29</v>
@@ -1210,13 +1204,13 @@
         <v>44511</v>
       </c>
       <c r="L18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
@@ -1230,7 +1224,7 @@
         <v>0.10489999999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>29</v>
@@ -1251,13 +1245,13 @@
         <v>44511</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N19" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
@@ -1271,10 +1265,10 @@
         <v>0.128</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20">
         <v>751</v>
@@ -1293,13 +1287,13 @@
         <v>44511</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
@@ -1313,10 +1307,10 @@
         <v>0.128</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21">
         <v>748</v>
@@ -1335,13 +1329,13 @@
         <v>44511</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N21" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
@@ -1355,10 +1349,10 @@
         <v>0.128</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
         <v>698</v>
@@ -1377,13 +1371,13 @@
         <v>44511</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
@@ -1397,7 +1391,7 @@
         <v>9.8799999999999999E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23">
         <v>36</v>
@@ -1419,13 +1413,13 @@
         <v>44511</v>
       </c>
       <c r="L23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
@@ -1439,7 +1433,7 @@
         <v>9.8799999999999999E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24">
         <v>36</v>
@@ -1461,13 +1455,13 @@
         <v>44511</v>
       </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N24" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
@@ -1481,7 +1475,7 @@
         <v>9.8799999999999999E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F25">
         <v>36</v>
@@ -1503,13 +1497,13 @@
         <v>44511</v>
       </c>
       <c r="L25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N25" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
@@ -1523,7 +1517,7 @@
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F26">
         <v>36</v>
@@ -1545,13 +1539,13 @@
         <v>44511</v>
       </c>
       <c r="L26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N26" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
@@ -1565,7 +1559,7 @@
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F27">
         <v>36</v>
@@ -1586,13 +1580,13 @@
         <v>44511</v>
       </c>
       <c r="L27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N27" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
@@ -1606,7 +1600,7 @@
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F28">
         <v>36</v>
@@ -1627,13 +1621,13 @@
         <v>44511</v>
       </c>
       <c r="L28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N28" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
@@ -1647,10 +1641,10 @@
         <v>0.20880000000000001</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29">
         <v>425</v>
@@ -1668,13 +1662,13 @@
         <v>44511</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N29" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
@@ -1688,10 +1682,10 @@
         <v>0.20880000000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30">
         <v>387</v>
@@ -1709,13 +1703,13 @@
         <v>44511</v>
       </c>
       <c r="L30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N30" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
@@ -1729,10 +1723,10 @@
         <v>0.20880000000000001</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31">
         <v>392</v>
@@ -1750,13 +1744,13 @@
         <v>44511</v>
       </c>
       <c r="L31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N31" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
@@ -1770,7 +1764,7 @@
         <v>0.1173</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F32">
         <v>46</v>
@@ -1791,13 +1785,13 @@
         <v>44511</v>
       </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
@@ -1811,7 +1805,7 @@
         <v>0.1173</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33">
         <v>46</v>
@@ -1832,13 +1826,13 @@
         <v>44511</v>
       </c>
       <c r="L33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N33" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
@@ -1852,7 +1846,7 @@
         <v>0.1173</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F34">
         <v>46</v>
@@ -1873,13 +1867,13 @@
         <v>44511</v>
       </c>
       <c r="L34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N34" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
@@ -1893,7 +1887,7 @@
         <v>0.11609999999999999</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F35">
         <v>46</v>
@@ -1914,13 +1908,13 @@
         <v>44511</v>
       </c>
       <c r="L35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N35" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
@@ -1934,7 +1928,7 @@
         <v>0.11609999999999999</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F36">
         <v>46</v>
@@ -1955,13 +1949,13 @@
         <v>44511</v>
       </c>
       <c r="L36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N36" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
@@ -1975,7 +1969,7 @@
         <v>0.11609999999999999</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <v>46</v>
@@ -1996,13 +1990,13 @@
         <v>44511</v>
       </c>
       <c r="L37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N37" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
@@ -2016,10 +2010,10 @@
         <v>0.15609999999999999</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
       </c>
       <c r="G38">
         <v>48</v>
@@ -2037,13 +2031,13 @@
         <v>44511</v>
       </c>
       <c r="L38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N38" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
@@ -2057,10 +2051,10 @@
         <v>0.15609999999999999</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39">
         <v>49</v>
@@ -2078,13 +2072,13 @@
         <v>44511</v>
       </c>
       <c r="L39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N39" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
@@ -2098,10 +2092,10 @@
         <v>0.15609999999999999</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
       </c>
       <c r="G40">
         <v>39</v>
@@ -2119,13 +2113,13 @@
         <v>44511</v>
       </c>
       <c r="L40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N40" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
@@ -2139,7 +2133,7 @@
         <v>0.12470000000000001</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F41">
         <v>48</v>
@@ -2160,13 +2154,13 @@
         <v>44511</v>
       </c>
       <c r="L41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N41" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.2">
@@ -2180,7 +2174,7 @@
         <v>0.12470000000000001</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F42">
         <v>48</v>
@@ -2201,13 +2195,13 @@
         <v>44511</v>
       </c>
       <c r="L42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N42" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.2">
@@ -2221,7 +2215,7 @@
         <v>0.12470000000000001</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F43">
         <v>48</v>
@@ -2242,13 +2236,13 @@
         <v>44511</v>
       </c>
       <c r="L43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N43" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.2">
@@ -2262,7 +2256,7 @@
         <v>0.1216</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F44">
         <v>48</v>
@@ -2283,13 +2277,13 @@
         <v>44511</v>
       </c>
       <c r="L44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N44" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.2">
@@ -2303,7 +2297,7 @@
         <v>0.1216</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F45">
         <v>48</v>
@@ -2325,13 +2319,13 @@
         <v>44511</v>
       </c>
       <c r="L45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N45" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.2">
@@ -2345,7 +2339,7 @@
         <v>0.1216</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F46">
         <v>48</v>
@@ -2366,13 +2360,13 @@
         <v>44511</v>
       </c>
       <c r="L46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N46" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.2">
@@ -2386,7 +2380,7 @@
         <v>0.13250000000000001</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F47">
         <v>77</v>
@@ -2407,13 +2401,13 @@
         <v>44511</v>
       </c>
       <c r="L47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N47" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.2">
@@ -2427,7 +2421,7 @@
         <v>0.13250000000000001</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F48">
         <v>77</v>
@@ -2448,13 +2442,13 @@
         <v>44511</v>
       </c>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N48" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
@@ -2468,7 +2462,7 @@
         <v>0.13250000000000001</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F49">
         <v>77</v>
@@ -2489,13 +2483,13 @@
         <v>44511</v>
       </c>
       <c r="L49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N49" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.2">
@@ -2509,7 +2503,7 @@
         <v>0.13159999999999999</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F50">
         <v>77</v>
@@ -2530,13 +2524,13 @@
         <v>44511</v>
       </c>
       <c r="L50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N50" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
@@ -2550,7 +2544,7 @@
         <v>0.13159999999999999</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F51">
         <v>77</v>
@@ -2571,13 +2565,13 @@
         <v>44511</v>
       </c>
       <c r="L51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N51" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
@@ -2591,7 +2585,7 @@
         <v>0.13159999999999999</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F52">
         <v>77</v>
@@ -2612,13 +2606,13 @@
         <v>44511</v>
       </c>
       <c r="L52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N52" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
@@ -2632,7 +2626,7 @@
         <v>0.1447</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F53">
         <v>85</v>
@@ -2653,13 +2647,13 @@
         <v>44511</v>
       </c>
       <c r="L53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N53" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
@@ -2673,7 +2667,7 @@
         <v>0.1447</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F54">
         <v>85</v>
@@ -2694,13 +2688,13 @@
         <v>44511</v>
       </c>
       <c r="L54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N54" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
@@ -2714,7 +2708,7 @@
         <v>0.1447</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F55">
         <v>85</v>
@@ -2735,13 +2729,13 @@
         <v>44511</v>
       </c>
       <c r="L55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N55" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.2">
@@ -2755,7 +2749,7 @@
         <v>0.15</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F56">
         <v>85</v>
@@ -2776,13 +2770,13 @@
         <v>44511</v>
       </c>
       <c r="L56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N56" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.2">
@@ -2796,7 +2790,7 @@
         <v>0.15</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F57">
         <v>85</v>
@@ -2817,13 +2811,13 @@
         <v>44511</v>
       </c>
       <c r="L57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N57" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.2">
@@ -2837,7 +2831,7 @@
         <v>0.15</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F58">
         <v>85</v>
@@ -2858,13 +2852,13 @@
         <v>44511</v>
       </c>
       <c r="L58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N58" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.2">
@@ -2878,10 +2872,10 @@
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
       </c>
       <c r="G59">
         <v>91</v>
@@ -2899,13 +2893,13 @@
         <v>44512</v>
       </c>
       <c r="L59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N59" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.2">
@@ -2919,10 +2913,10 @@
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
       </c>
       <c r="G60">
         <v>71</v>
@@ -2940,13 +2934,13 @@
         <v>44512</v>
       </c>
       <c r="L60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N60" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.2">
@@ -2960,10 +2954,10 @@
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
       </c>
       <c r="G61">
         <v>75</v>
@@ -2981,13 +2975,13 @@
         <v>44512</v>
       </c>
       <c r="L61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N61" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.2">
@@ -3001,7 +2995,7 @@
         <v>7.8899999999999998E-2</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F62">
         <v>28</v>
@@ -3023,13 +3017,13 @@
         <v>44512</v>
       </c>
       <c r="L62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N62" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
@@ -3043,7 +3037,7 @@
         <v>7.8899999999999998E-2</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -3065,13 +3059,13 @@
         <v>44512</v>
       </c>
       <c r="L63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N63" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.2">
@@ -3085,7 +3079,7 @@
         <v>7.8899999999999998E-2</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F64">
         <v>28</v>
@@ -3107,13 +3101,13 @@
         <v>44512</v>
       </c>
       <c r="L64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N64" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.2">
@@ -3127,7 +3121,7 @@
         <v>7.8299999999999995E-2</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F65">
         <v>28</v>
@@ -3149,13 +3143,13 @@
         <v>44512</v>
       </c>
       <c r="L65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N65" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.2">
@@ -3169,7 +3163,7 @@
         <v>7.8299999999999995E-2</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F66">
         <v>28</v>
@@ -3191,13 +3185,13 @@
         <v>44512</v>
       </c>
       <c r="L66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N66" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.2">
@@ -3211,7 +3205,7 @@
         <v>7.8299999999999995E-2</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F67">
         <v>28</v>
@@ -3232,13 +3226,13 @@
         <v>44512</v>
       </c>
       <c r="L67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N67" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.2">
@@ -3252,10 +3246,10 @@
         <v>0.10349999999999999</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
       </c>
       <c r="G68">
         <v>10</v>
@@ -3273,13 +3267,13 @@
         <v>44512</v>
       </c>
       <c r="L68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N68" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.2">
@@ -3293,10 +3287,10 @@
         <v>0.10349999999999999</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
       </c>
       <c r="G69">
         <v>11</v>
@@ -3314,13 +3308,13 @@
         <v>44512</v>
       </c>
       <c r="L69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N69" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.2">
@@ -3334,10 +3328,10 @@
         <v>0.10349999999999999</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
       </c>
       <c r="G70">
         <v>9</v>
@@ -3355,13 +3349,13 @@
         <v>44512</v>
       </c>
       <c r="L70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N70" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.2">
@@ -3375,7 +3369,7 @@
         <v>0.17960000000000001</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F71">
         <v>59</v>
@@ -3396,13 +3390,13 @@
         <v>44512</v>
       </c>
       <c r="L71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N71" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.2">
@@ -3416,7 +3410,7 @@
         <v>0.17960000000000001</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F72">
         <v>59</v>
@@ -3437,13 +3431,13 @@
         <v>44512</v>
       </c>
       <c r="L72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N72" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.2">
@@ -3457,7 +3451,7 @@
         <v>0.17960000000000001</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F73">
         <v>59</v>
@@ -3478,13 +3472,13 @@
         <v>44512</v>
       </c>
       <c r="L73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N73" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.2">
@@ -3498,7 +3492,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F74">
         <v>59</v>
@@ -3519,13 +3513,13 @@
         <v>44512</v>
       </c>
       <c r="L74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N74" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.2">
@@ -3539,7 +3533,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F75">
         <v>59</v>
@@ -3560,13 +3554,13 @@
         <v>44512</v>
       </c>
       <c r="L75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N75" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.2">
@@ -3580,7 +3574,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F76">
         <v>59</v>
@@ -3601,13 +3595,13 @@
         <v>44512</v>
       </c>
       <c r="L76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N76" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.2">
@@ -3621,10 +3615,10 @@
         <v>9.3799999999999994E-2</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
       </c>
       <c r="G77">
         <v>84</v>
@@ -3642,13 +3636,13 @@
         <v>44512</v>
       </c>
       <c r="L77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N77" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.2">
@@ -3662,10 +3656,10 @@
         <v>9.3799999999999994E-2</v>
       </c>
       <c r="E78" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
       </c>
       <c r="G78">
         <v>75</v>
@@ -3683,13 +3677,13 @@
         <v>44512</v>
       </c>
       <c r="L78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N78" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.2">
@@ -3703,10 +3697,10 @@
         <v>9.3799999999999994E-2</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
       </c>
       <c r="G79">
         <v>76</v>
@@ -3724,13 +3718,13 @@
         <v>44512</v>
       </c>
       <c r="L79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N79" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.2">
@@ -3744,7 +3738,7 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F80">
         <v>60</v>
@@ -3765,16 +3759,16 @@
         <v>44512</v>
       </c>
       <c r="L80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>27</v>
       </c>
@@ -3785,7 +3779,7 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F81">
         <v>60</v>
@@ -3806,16 +3800,16 @@
         <v>44512</v>
       </c>
       <c r="L81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>27</v>
       </c>
@@ -3826,7 +3820,7 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F82">
         <v>60</v>
@@ -3847,16 +3841,16 @@
         <v>44512</v>
       </c>
       <c r="L82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>28</v>
       </c>
@@ -3867,7 +3861,7 @@
         <v>0.1206</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F83">
         <v>60</v>
@@ -3888,16 +3882,16 @@
         <v>44512</v>
       </c>
       <c r="L83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>28</v>
       </c>
@@ -3908,7 +3902,7 @@
         <v>0.1206</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F84">
         <v>60</v>
@@ -3929,19 +3923,16 @@
         <v>44512</v>
       </c>
       <c r="L84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N84" t="s">
-        <v>13</v>
-      </c>
-      <c r="O84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>28</v>
       </c>
@@ -3952,7 +3943,7 @@
         <v>0.1206</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F85">
         <v>60</v>
@@ -3973,16 +3964,16 @@
         <v>44512</v>
       </c>
       <c r="L85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>29</v>
       </c>
@@ -3993,10 +3984,10 @@
         <v>0.14910000000000001</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
       </c>
       <c r="G86">
         <v>265</v>
@@ -4014,16 +4005,16 @@
         <v>44512</v>
       </c>
       <c r="L86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>29</v>
       </c>
@@ -4034,10 +4025,10 @@
         <v>0.14910000000000001</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
       </c>
       <c r="G87">
         <v>264</v>
@@ -4055,16 +4046,16 @@
         <v>44512</v>
       </c>
       <c r="L87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>29</v>
       </c>
@@ -4075,10 +4066,10 @@
         <v>0.14910000000000001</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
       </c>
       <c r="G88">
         <v>255</v>
@@ -4096,16 +4087,16 @@
         <v>44512</v>
       </c>
       <c r="L88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>30</v>
       </c>
@@ -4116,7 +4107,7 @@
         <v>0.15090000000000001</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F89">
         <v>62</v>
@@ -4137,16 +4128,16 @@
         <v>44512</v>
       </c>
       <c r="L89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>30</v>
       </c>
@@ -4157,7 +4148,7 @@
         <v>0.15090000000000001</v>
       </c>
       <c r="E90" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F90">
         <v>62</v>
@@ -4178,16 +4169,16 @@
         <v>44512</v>
       </c>
       <c r="L90" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>30</v>
       </c>
@@ -4198,7 +4189,7 @@
         <v>0.15090000000000001</v>
       </c>
       <c r="E91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F91">
         <v>62</v>
@@ -4219,16 +4210,16 @@
         <v>44512</v>
       </c>
       <c r="L91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>31</v>
       </c>
@@ -4239,7 +4230,7 @@
         <v>0.1416</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F92">
         <v>62</v>
@@ -4260,16 +4251,16 @@
         <v>44512</v>
       </c>
       <c r="L92" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>31</v>
       </c>
@@ -4280,7 +4271,7 @@
         <v>0.1416</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F93">
         <v>62</v>
@@ -4301,16 +4292,16 @@
         <v>44512</v>
       </c>
       <c r="L93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>31</v>
       </c>
@@ -4321,7 +4312,7 @@
         <v>0.1416</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F94">
         <v>62</v>
@@ -4342,16 +4333,16 @@
         <v>44512</v>
       </c>
       <c r="L94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>32</v>
       </c>
@@ -4362,7 +4353,7 @@
         <v>0.1008</v>
       </c>
       <c r="E95" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F95">
         <v>64</v>
@@ -4383,16 +4374,16 @@
         <v>44512</v>
       </c>
       <c r="L95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>32</v>
       </c>
@@ -4403,7 +4394,7 @@
         <v>0.1008</v>
       </c>
       <c r="E96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F96">
         <v>64</v>
@@ -4424,13 +4415,13 @@
         <v>44512</v>
       </c>
       <c r="L96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N96" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
@@ -4444,7 +4435,7 @@
         <v>0.1008</v>
       </c>
       <c r="E97" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F97">
         <v>64</v>
@@ -4465,13 +4456,13 @@
         <v>44512</v>
       </c>
       <c r="L97" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N97" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.2">
@@ -4485,7 +4476,7 @@
         <v>0.12</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F98">
         <v>64</v>
@@ -4506,13 +4497,13 @@
         <v>44512</v>
       </c>
       <c r="L98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N98" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.2">
@@ -4526,7 +4517,7 @@
         <v>0.12</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F99">
         <v>64</v>
@@ -4547,13 +4538,13 @@
         <v>44512</v>
       </c>
       <c r="L99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N99" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.2">
@@ -4567,7 +4558,7 @@
         <v>0.12</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F100">
         <v>64</v>
@@ -4588,13 +4579,13 @@
         <v>44512</v>
       </c>
       <c r="L100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N100" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.2">
@@ -4608,7 +4599,7 @@
         <v>0.13420000000000001</v>
       </c>
       <c r="E101" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F101">
         <v>68</v>
@@ -4629,13 +4620,13 @@
         <v>44512</v>
       </c>
       <c r="L101" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N101" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.2">
@@ -4649,7 +4640,7 @@
         <v>0.13420000000000001</v>
       </c>
       <c r="E102" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F102">
         <v>68</v>
@@ -4670,13 +4661,13 @@
         <v>44512</v>
       </c>
       <c r="L102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N102" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.2">
@@ -4690,7 +4681,7 @@
         <v>0.13420000000000001</v>
       </c>
       <c r="E103" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F103">
         <v>68</v>
@@ -4711,13 +4702,13 @@
         <v>44512</v>
       </c>
       <c r="L103" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N103" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.2">
@@ -4731,7 +4722,7 @@
         <v>0.12909999999999999</v>
       </c>
       <c r="E104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F104">
         <v>68</v>
@@ -4752,13 +4743,13 @@
         <v>44512</v>
       </c>
       <c r="L104" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N104" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.2">
@@ -4772,7 +4763,7 @@
         <v>0.12909999999999999</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F105">
         <v>68</v>
@@ -4793,13 +4784,13 @@
         <v>44512</v>
       </c>
       <c r="L105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N105" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.2">
@@ -4813,7 +4804,7 @@
         <v>0.12909999999999999</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F106">
         <v>68</v>
@@ -4834,13 +4825,13 @@
         <v>44512</v>
       </c>
       <c r="L106" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N106" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
@@ -4854,7 +4845,7 @@
         <v>0.14030000000000001</v>
       </c>
       <c r="E107" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F107">
         <v>69</v>
@@ -4875,13 +4866,13 @@
         <v>44512</v>
       </c>
       <c r="L107" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N107" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.2">
@@ -4895,7 +4886,7 @@
         <v>0.14030000000000001</v>
       </c>
       <c r="E108" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F108">
         <v>69</v>
@@ -4916,13 +4907,13 @@
         <v>44512</v>
       </c>
       <c r="L108" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N108" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.2">
@@ -4936,7 +4927,7 @@
         <v>0.14030000000000001</v>
       </c>
       <c r="E109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F109">
         <v>69</v>
@@ -4957,13 +4948,13 @@
         <v>44512</v>
       </c>
       <c r="L109" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N109" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.2">
@@ -4977,7 +4968,7 @@
         <v>0.1394</v>
       </c>
       <c r="E110" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F110">
         <v>69</v>
@@ -4998,13 +4989,13 @@
         <v>44512</v>
       </c>
       <c r="L110" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N110" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.2">
@@ -5018,7 +5009,7 @@
         <v>0.1394</v>
       </c>
       <c r="E111" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F111">
         <v>69</v>
@@ -5039,13 +5030,13 @@
         <v>44512</v>
       </c>
       <c r="L111" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N111" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.2">
@@ -5059,7 +5050,7 @@
         <v>0.1394</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F112">
         <v>69</v>
@@ -5080,13 +5071,13 @@
         <v>44512</v>
       </c>
       <c r="L112" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N112" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.2">
@@ -5100,7 +5091,7 @@
         <v>9.8599999999999993E-2</v>
       </c>
       <c r="E113" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F113">
         <v>77</v>
@@ -5121,13 +5112,13 @@
         <v>44512</v>
       </c>
       <c r="L113" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N113" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.2">
@@ -5141,7 +5132,7 @@
         <v>9.8599999999999993E-2</v>
       </c>
       <c r="E114" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F114">
         <v>77</v>
@@ -5162,13 +5153,13 @@
         <v>44512</v>
       </c>
       <c r="L114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N114" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.2">
@@ -5182,7 +5173,7 @@
         <v>9.8599999999999993E-2</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F115">
         <v>77</v>
@@ -5203,13 +5194,13 @@
         <v>44512</v>
       </c>
       <c r="L115" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N115" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.2">
@@ -5223,7 +5214,7 @@
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="E116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F116">
         <v>77</v>
@@ -5244,13 +5235,13 @@
         <v>44512</v>
       </c>
       <c r="L116" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N116" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.2">
@@ -5264,7 +5255,7 @@
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="E117" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F117">
         <v>77</v>
@@ -5285,13 +5276,13 @@
         <v>44512</v>
       </c>
       <c r="L117" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N117" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.2">
@@ -5305,7 +5296,7 @@
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="E118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F118">
         <v>77</v>
@@ -5326,13 +5317,13 @@
         <v>44512</v>
       </c>
       <c r="L118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N118" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
